--- a/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,39 +52,24 @@
     <t>412557</t>
   </si>
   <si>
-    <t>Ann M. Kuster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kuster. Good morning. I am pleased to be here today for the Subcommittee's first in-depth look at the implementation of the Agricultural Act of 2014's Title II conservation programs.    I want to thank Chairman Thompson and our Ranking Member, Ms. Lujan Grisham, for holding this important hearing and for their leadership on this Subcommittee. The 2014 Farm Bill made reforms to the conservation title in order to make conservation programs more efficient, effective, and user-friendly for producers. These programs serve as important tools that our farmers and ranchers use to improve water quality, mitigate drought, and improve soil health.    From New Mexico to New Hampshire, conservation programs like the Conservation Stewardship Program and the Environmental Quality Incentives Programs, EQIP, are helping farmers and ranchers endure drought conditions and allowing rural families to remain on their land and ranches. In fact, New Mexico is one of the leading states in CSP with close to 1 million acres enrolled and funded through this program. In addition to these traditional conservation programs, New Mexico has also benefited from the Regional Conservation Partnership Program, which is one of the new conservation programs the farm bill created.    The RCPP aims to encourage innovative partnerships through a Federal/non-Federal cost-share in order to accomplish important conservation work at a watershed level. New Mexico's four RCPP projects are going to help the state prevent wildfires, combat invasive species, and preserve traditional communal irrigation systems. I am disappointed that our conservation programs have endured some cuts that will ultimately mean fewer resources for farmers and ranchers. But I am looking forward to hearing how this Committee can continue to support these programs which are vital in protecting rangelands, wildlife habitat, and water quality.    I thank the witnesses for taking the time to be here with us today and share their testimony and expertise. And on behalf of Representative Lujan-Grisham, I want to extend a special welcome to Brent Van Dyke from New Mexico on the second panel. I look forward to the discussion. And with that, Mr. Chairman, we yield back.    The Chairman. I thank the gentlelady. I am actually pleased to acknowledge the presence of our full Committee Chairman who I understand does not have an opening statement. But I want to wish him a very happy birthday today.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Well I thank the Chairman. I appreciate that and yield back. I appreciate the birthday wish. Thank you.    The Chairman. I appreciate you sharing your birthday with the Subcommittee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Conaway. Actually I am sharing it with a baseball team tonight. That is our secret weapon. To win the Congressional baseball game tonight is my birthday present to myself, and it will be a victory by the Republicans. I yield back.    The Chairman. I am pleased to recognize the full Agriculture Committee Ranking Member, Mr. Peterson, for an opening statement.</t>
   </si>
   <si>
-    <t>Peterson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peterson. Well thank you, Mr. Chairman. And thank you for holding this hearing. And I want to thank the folks from the Department and their hard work and the other witnesses that are here. And Chief Weller, I thank you for the work you have done on the RCPP in our part of the world. We appreciate that. And we continue to work on implementing that. So that has been very much appreciated.    I just want to bring up a couple concerns that I have heard too. I haven't looked into this as much, but I have been having farmers talk to me here the last month or 2 that they are not able to qualify to get back into the CSP. I don't know exactly what is going on, if it is a limitation on the dollars or what it is. But I have had two or three of them talk to me about it. Mostly, I want to discuss the CRP a little bit.    A history lesson for those that haven't followed farm policy since 1985, which is a long time ago, the original CRP program was not a conservation program. The original CRP program was to reduce production because prices had collapsed, we had to get land out of production because we had too much production. And so we set up the CRP as a production control mechanism. Back in the 1950s, we had the forerunner, the Soil Bank. And back in those days, in my area, my home county, we had pheasants and ducks all over the place. And then Eisenhower, Ezra Taft Benson, came in, got rid of it. And I have been around too long.    And we today haven't got a pheasant or a duck in that county. And the reason is we lost the Soil Bank and we never got it back in. Because by the time we reestablished the CRP program, that land had become too valuable. And it is all being farmed. So what I am concerned about is that we have added environmental factors into the CRP as we have gone along. Back in 1996, the one thing that was positive in the 1996 Farm Bill was that I convinced Chairman Roberts to raise the cap on CRP to 36 million acres. What that did is it spread out CRP all over the country. And it put in a lot of big tract CRP, which is the main reason why wildlife really responded to the CRP program. Because we had big tracts of half a section or a section where you could spread the predators out and they weren't able to zero in and wipe out all the wildlife like they do on the wildlife management areas in these 40 acre tracts and so forth. So that was really positive.    But as we have gone forward, we keep putting more and more restrictions on the CRP. And we are narrowing where this can be, where people can get in. And I am concerned that where we are heading with CRP is going to really erode the wildlife benefits of the program. And we still have in the statute that \\1/3\\ of this is supposed to be wildlife benefits, which are supposed to be one of the primary reasons for the CRP.    So I am somewhat disappointed and I have had discussions with the Secretary about the fact that we are not having a general sign-up this year. They have extended the contracts another year. And there is going to be a sign-up, as I understand it, probably the 1st of December, which, for Minnesota, that means nothing happens until the year after this. So I am concerned about the fact that we are not doing it this year. And there was an announcement made, there is going to 800,000 acres targeted. And, frankly, I am a little bit concerned about that. Because what we are doing, once again, is pushing all of these targeted programs which are okay to some extent. But \\1/2\\ of the 800,000 acres is going to go to be SAFE acres which are basically controlled by the state DNRs. And they have their agenda.    And there is another 300,000 acres for nesting habitat which, apparently, you have to be able to prove that you have nesting pairs of ducks in your field in order for you to qualify. I am not that familiar with it. But that is what I have been told. And then we have the wetland restoration which makes you plug ditches and allow the wetlands to be restored which, I guess, means you are going to have wetlands on your land from that time forward, which has caused some controversy.    And so these targeted programs have contributed to people setting up folks to help get people into these programs. And so in North Dakota, we have a big controversy that has developed because Ducks Unlimited have put a whole bunch of biologists in the FSA offices in North Dakota. And part of the criticism is that we have not funded the technical assistance, so this is necessary. But what is happening is they are pushing people into these other programs and now there is a backlash going on in North Dakota where they want to have a, they are talking about having a bill to tell them they can't have Ducks Unlimited people involved. So it has created some controversies out there.    So I am a little concerned about where we are headed with all this. And I just think as we get to the next general sign-up, I just hope that we can ramp down some of these environmental things so that we can still have big tract CRPs spread across the country and get these wildlife benefits, in addition to the environmental benefits. So with that, Mr. Chairman, I will yield back. And, again, I appreciate you having this hearing.    The Chairman. I thank the gentleman. The gentleman yields back. The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, to ensure there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in the order of arrival. I appreciate the Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements have been distributed ahead of time and will be included within the record.    I would like to welcome our first panel witnesses who are at the table. Chief Jason Weller, Natural Resources Conservation Service, and Administrator Val Dolcini, Farm Service Agency. Thank you, gentlemen for being here today and for your leadership. And Chief Weller, please begin whenever you are ready.</t>
   </si>
   <si>
-    <t>Weller</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weller. Well good morning, Mr. Chairman, and Ranking Member Lujan Grisham. Nice to see you. And I appreciate very much the opportunity to be here before the Committee this morning. And if nothing else, I just want to express the gratitude and how grateful I am for the authorities and the resources this Committee provides to USDA and the stewardship you provide for America's private lands incentive-based conservation programs.    Through the 2014 Farm Bill, what you provided, what you crafted in that bill provides USDA enormous flexibilities and authorities to go out, in partnership with farmers and ranchers, deliver real results for agriculture, to help them maintain, if not boost their production, but also then help them manage their natural resource challenges in a way that is really effective. And in that farm bill, as you know, you have streamlined a lot of programs. You have maintained flexibilities, even enhanced flexibilities, and then really emphasized the value and the importance of partnerships.    And so with these authorities, on behalf of NRCS, we have been able to deliver very significant results just in the last year alone. But also looking back over previous farm bills too, there are some very significant results across America that I would like to talk about very briefly this morning. The bottom line is you can be extremely proud of the work that is being done in partnership with producers through the programs and authorities that you have authorized and funded through your hard work in the 2014 Farm Bill.    Speaking of birthdays, Mr. Chairman, our agency celebrated our 80th birthday 2 months ago. So 2 weeks after Black Sunday in April 1935, President Roosevelt, in partnership with Congress, enacted and put into law what created the Soil Conservation Service. So 80 years of history working in partnership with farmers and ranchers, on a collaborative voluntary basis, working with soil and water conservation districts, state agencies and other private partners across America. I am very honored to represent the 10,000 professionals that work at NRCS, work in field offices across America, in state offices, in centers, and in national headquarters. These men and women are true professionals. They do a lot of unheralded work that, in my view, is very honorable and is very valuable. And it is truly on behalf of America's farmers and ranchers. I am very honored to represent NRCS and hopefully convey a little bit about the results we are helping to deliver in partnership with producers.    So, first, let me talk a little bit about some of the soil benefits. In the Chesapeake Bay region alone, since 2006, producers have put in place effective conservation practices to reduce sediment loss from their crop fields, upwards of 62 percent. That translates into over 15 million tons of sediment that no longer flows in the Chesapeake Bay estuary. That is enough sediment to fill 150,000 train cars which would stretch from D.C. to Albuquerque, New Mexico every year.    In terms of soil health, Mr. Chairman, you hosted and invited us to participate in a soil health briefing last year. And we heard from producers like Mr. Groff from Pennsylvania on how they have experimented and put in place soil health management practices. In the case of Mr. Groff, he manages 225 acres in Pennsylvania. He has put in place soil health systems going back decades. And he reports yield boosts of upward of ten percent above local averages because of cover crops and wise tillage practices he has in place.    Well since 2012, NRCS, through your programs, has put in place 3.7 million acres of cover crops, to help farmers put in place 1.7 million acres of no-till practices, to help protect the soils. And in periods of drought, back in 2012, when producers were surveyed in the heartland states, this one practice alone, cover crops, produces a reported yield benefits of 12 to 15 percent for corn and beans above conventional farmers that did not incorporate cover crops as part of their rotation.    In terms of water, sometimes there is too much, sometimes there is too little, and sometimes we need to protect the water we have. In terms of water protection, because of the programs that you have authorized, we have partnered with producers in Arkansas to focus results. And because of that collaborative approach to protect water resources, the State of Arkansas is going to be able to de-list two waters from the section 303(d) impaired lists in Arkansas. And in Mr. Lucas' home State of Oklahoma, since 2007, the state, NRCS in partnership with Oklahoma Conservation Commission, de-listed upwards of 40 streams and river segments in the state, 900 miles of stream segments taken off 303(d) lists because of positive proactive conservation on behalf of farmers.    In terms of water conservation, the Ogallala Aquifer Region, in over 4 years we have put in place an effective irrigation efficiency practice with farmers that we estimate save 1.5 million acre feet of water. That is enough water to supply drinking water for 3.3 million households every year, an incredible quantity of water that is sustaining the healthy aquifer, maintaining productivity in the agricultural heartland, and also allowing for industry and municipalities to have access to that important water.    Sometimes it rains too much like in Oklahoma and Texas. Because of wise investments that this Committee has made in previous decades, we estimate we have helped protect and prevent $130 million worth of flood damages that would have occurred but for the infrastructure. This Committee, in the 2014 Farm Bill, invested in the rehab programs to help protect that infrastructure investment. And because of the wise investments, we were able to protect hundreds of thousands of families, communities, homes, public infrastructure, railways, bridges, schools, and hospitals, because of the hard work this Committee put in place.    One final example, in terms of animals, just incredible benefits on wildlife. And, oftentimes, wildlife can be the best indicator. When you manage your forests, your grasslands, your crop fields effectively, nature will respond. Just 2 weeks ago with the Louisiana black bear, Secretary Jewell, Governor Jindal proposed removing the Louisiana black bear from the endangered species list, because of investments through private lands conservation easements.    In Louisiana alone, over 217,000 acres were put in place through the Wetlands Reserve Program. And because of wise targeting and partnership with the state, we helped put in place a network of habitat that is good for protecting farmlands, protecting the values of those lands, but also protecting wetland resources, migratory bird resources. In this case, the Louisiana black bear.    North in Montana, the Arctic Fluvial Grayling was taken off the candidate list because of actions of producers, of ranchers. In Oregon, the Oregon chub, was the first fish in history to be taken off the list not because it was extinct or extirpated, but because it came back. Conservation investments through your authorities brought the Oregon chub back from a population of less than 1,000 fish, today over 140,000 fish and growing.    And then, most recently, the bi-state population of sage grouse on the border between California and Nevada, taken off the candidate list. Again, because of proactive investments through private lands conservation and the partnership of private landowners, ranchers, making a difference on their operations, going to keep them intact, keep them operating, keep them on their land, but also, in this case, keep the bird off the endangered species list.    Thank you very much, Mr. Chairman, for inviting me here today. And I look forward to your questions.</t>
   </si>
   <si>
-    <t>Dolcini</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dolcini. Thank you, sir. Mr. Chairman, Members of the Subcommittee, I appreciate this opportunity to discuss FSA's implementation of the farm bill's conservation title. Like Chief Weller, I would like to thank this Subcommittee and the full Committee in this Congress and in past Congresses for the support that you have shown our programs, our people, and our resources. And like Chief Weller, I want to call out the hard work of 15,000 FSA employees in 2,124 service centers across this country, along with the 7,000 or so farmer-elected county committee men and women that support the work of FSA. They are our competitive edge. It is not the work that I do here in Washington, it is the work that is done in the field every day.    And to stay on the birthday band wagon, I will start my testimony with a note that the Conservation Reserve Program turns 30 this year. And so we are celebrating all year long the 30th anniversary of conservation achievements across the American landscape. CRP is a voluntary program that allows USDA to contract with farmers and ranchers so that environmentally sensitive lands and lands with wildlife benefits are not farmed or ranched, but, instead, are used for conservation benefits. Participants establish long-term covers, such as approved grasses or trees, to control erosion and water quality. And, in return, we provide participants with rental payments, cost-sharing, and other incentives for the period of the contract. CRP restores habitat for ducks, pheasants, deer, and other wildlife. And in doing so, it spurs hunting, fishing, recreation, tourism, and other forms of local economic development. We have a large number of partners who work collaboratively with FSA and contribute to these achievements, including our sister agency, NRCS, as well as numerous non-Federal partners that you will hear from later this morning.    Currently, 24.3 million acres are enrolled in CRP contracts, including 18.1 under general sign-up authority and 6.2 million under continuous sign-up authority. CRP contracts on 1.9 million acres will expire at the end of this fiscal year. With the enactment of the farm bill, the total number of CRP acres that can be enrolled nationwide has been reduced from 32 to 24 million beginning in Fiscal Year 2017. And as a result, we anticipate that CRP will increasingly focus on the most sensitive acreage and that the sign-ups will be increasingly competitive. To target this high-benefit acreage, Secretary Vilsack announced on May 29 that an additional 800,000 acres would be available under certain continuous authorities, including, as Congressman Peterson pointed out, 300,000 acres for duck habitat, 100,000 acres for wetlands, and 400,000 acres for the SAFE acre program.    He also announced that the next general enrollment period will begin on December 1 and will conclude on February 26 of 2016. Participants with eligible CRP contracts that expire this fiscal year will be provided an option on a 1 year extension. USDA also restarted continuous enrollment activity in the Transitions Incentive Program, the TIP program. This encourages transfer of expiring CRP lands to beginning and socially-disadvantaged farmers and ranchers. Other farm bill provisions, such as changes to haying and grazing, tree thinning and grasslands, require rulemaking and National Environmental Policy Act analysis. Both of these efforts are underway and both are nearing completion.    The 2014 Farm Bill also requires compliance with highly-erodible land and wetland conservation requirements in order to be eligible for crop insurance premium subsidies. While most farmers have a certification form on file, I would say many farmers do, USDA conducted informational meetings and training sessions all across the country for those who may not. And we reached tens of thousands of stakeholders to ensure that affected producers who filed their form by the June 1 deadline can remain eligible for premium supports during the 2016 reinsurance year.    In light of recent natural disasters, such as the serious flooding we have seen in Oklahoma and Texas and continued drought conditions in California and elsewhere in the West, I would like to also reemphasize the importance of our Emergency Conservation Program. ECP provides emergency funding and technical assistance to help farmers and ranchers rehabilitate farmland damaged by natural disaster. It also helps livestock producers enhance water supplies during severe drought. And we are standing by to assist states in need with that program.    Mr. Chairman, Members, as you have noted, our nation's farmers and ranchers are dedicated stewards of land conservation. For 30 years, their participation in CRP has prevented billions of tons of soil from eroding, reduced nitrogen and phosphorus run-off significantly, sequestered millions of tons of greenhouse gasses, and has protected about 170,000 miles of streams and creeks throughout this nation. Last month, we also reached the 1 million acre milestone in the SAFE acre program. And throughout the course of the year, we will be highlighting success stories from all over the nation to mark 30 years of successful CRP conservation work.    Farmers and ranchers are doing great things to conserve the environment in your Congressional districts and to build habitat. And they can count on FSA's support in those efforts. This concludes my testimony. And I am happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>412558</t>
   </si>
   <si>
-    <t>Michelle Lujan Grisham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you very much, Mr. Chairman. Chief Weller and Administrator, thank you very much for being here. I agree, the entire Committee, appreciates your efforts and diligence. And the update of that, how we are proceeding and updating the latest investments and new authorities in the farm bill. Chief Weller, in your testimony and in your written testimony as well, you have mentioned the importance of the conservation programs and investments and their impact on yields and endangered species listings. Specifically today you talked about two, the Louisiana black bear and the Oregon chub. I really appreciate that because in that context, that is what we all want those positive end results, but I continue to hear, of course, concerns in my state and district from landowners and the industry about how listing of a species impacts their livelihood and their businesses. And I also hear, frankly and interestingly enough, those same concerns from environmental and conservation groups on how species population numbers and those critical habitats continue to shrink.    It is clear to me that both these groups may have a different means to an end, but they are concerned, quite frankly, about the very same things. They want to protect species. And they want to prevent listings. And I have seen stakeholders from many different backgrounds, frankly, come together and work toward this goal very successfully. And I will give you an example. In 2011, the oil and gas industry in my state was very concerned about the dunes sagebrush lizard listing that would eliminate drilling in the Permian Basin which produces 20 percent of all the oil in the lower 48 states. Now, as you might imagine, this has a significant set of consequences not only for my state and district, but for the entire country. Now, thankfully, the listing was avoided because landowners in New Mexico and Texas proactively took steps to remove the threats to the listing on 600,000 acres which covered 88 percent of the lizard's habitat. What I would love to do is replicate those efforts as often as I can. And I believe, of course, that NRCS is in a position to encourage real innovation.    What I worry about, however, is that stakeholders continue to tell me they don't have the information or the resources that they need to adequately participate in the conservation programs or to collaborate effectively so that they can have those kind of results. So I would love it if you would walk me through and describe what kind of outreach is going on, how are we educating and engaging landowners in the conservation programs. And as you do that, how you are encouraging them, as you reach out to that group of stakeholders, to have relationships with the environmental community, not only in their communities and their states but around the country so that you achieve the successes that you identified in your testimony and I identified in my question.</t>
   </si>
   <si>
@@ -115,9 +97,6 @@
     <t>400247</t>
   </si>
   <si>
-    <t>Frank D. Lucas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman. And perhaps for a moment before we get into a lot of the details, considering the 80th anniversary of the founding of the NRCS's predecessor not many days ago, the 30th anniversary of CRP, we almost need to take a victory lap here, consider the progress and the great accomplishments of your predecessors out there, gentleman, over the course of the last 80 years. And, for that matter, our predecessors here. In my region of the country, in the last 4\\1/2\\, 5 weeks have had 22" of rain. I average 24-28" a year on the farm where I live. In 2011, we had 14" for the entire year. It came at the wrong time of the year. And for the first time in my memory or the memory of any senior members of my community, we actually had substantial amounts of native grasses in the pastures die from dry freezes in the wintertime. We have bounced back and forth through these weather patterns. And in this last calendar year, another 14" of rain.    The fact that we could go 5 years in the Southwest region of the country, where the Chairman and I are from, through those kind of conditions and not have the most amazing dust storms, not have the most amazing environmental collapse is an amazing compliment to the work of your predecessors and to the work of our predecessors on this Committee, absolutely amazing. And then to have Mother Nature change course and drop 22" of rain where I live in 4-5 weeks and not have massive flooding, massive loss of human life, massive degrading of the environment, the wildlife up and down those streams is a statement once again about the work of all of our predecessors. The upstream flood control programs, the rehab programs, all of those things. So in the very cynical world that we live in, it is worth acknowledging for just a moment we have done some good stuff together here in the course of 80 years. And it gives us a tremendous foundation to build forward.    The Ranking Member alluded to the CRP situation. And he is exactly right. CRP, in its earlier reincarnation, was a creation, was the Soil Bank of the 1950s, a response to the price issues facing production agriculture. An acknowledgment that the programs from that period back to the AAA Act of 1933 had not always been cost effective or effective in providing relief. The Soil Bank, at least from the perspective of my predecessors in the early 1960s came to an end because it began the dramatic depopulation of the southern plains. You put your farm in the program, you sold your equipment, you moved to wherever the kids lived. We re-encountered that in the 1985 program. But that said, the effect that it has had on the environment, on the wildlife, on a variety of things across the country is without measure. At the time, the Ranking Member and I in this Committee worked to put the 2014 Agricultural Act together, we had $7 corn for much of that period. CRP, being a voluntary program, 7 million acres approximately, we predicted, would come out. And under the Budget Act of 1974, which I am not as impressed with as I have been impressed with all our conservation actions of the last 80 years, we were compelled to reduce the number of authorized acres to reflect what the market decisions were being made in order to preserve that revenue stream to be able to do the farm bill, as the Ranking Member well knows. We don't have $7 corn anymore. We have amazing weather patterns around the country.    At some point, as a Committee, we have to reassess our CRP situation. Wouldn't you agree, Mr. Ranking Member? We have to reassess that. But that said, we have a vehicle that is both good for the farm economy generally and good for wildlife generally that we can work with. And that is the legacy of the 2014 Agricultural Act. It has built off the good work for generations. If I get a little wound up, understand that I come from and live in that region on the east side of the Rockies, in the southern part of the plains, it was so miserably horrible in the 1930s, thanks to Mother Nature and thanks to, in many cases, bad policy decisions. That same area that went through the drought of the 1950s, that same area that went through the horrible economic bust of the 1980s. Once again, many bad policy decisions. I just encourage all of us at this hearing to think not only about the circumstances now, but 5, 10, 20, 25 years down the road, to build off of the work that has been laid for us, to make sure that by accident or intention, we never have another 1930s or 1950s or 1980s. That is our responsibility. Again, gentlemen, thank you for your good work. And, Mr. Director, everything that you can do when it comes to the issue of the AD-1026s that Chairman Thompson referenced. We, as Members who spend a lot of time at home, may be about to discover that a lot of farmers perhaps didn't pay quite as close attention to their mail as they should have. And we will have to address that when the time comes. I yield back, Mr. Chairman.    The Chairman. I thank the gentleman. I am now pleased to recognize the full Committee Ranking Member, Mr. Peterson, for 5 minutes.</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman and Ranking Member, for having this hearing. And I first want to take a moment just to thank my colleagues, Representative Lucas from Oklahoma and Representative Peterson from Minnesota, for their leadership on this Committee. And it just really shows that when we come together in a thoughtful, commonsense way, we can enact policy that makes our country better. And I just want to publicly thank them for their leadership and their example that they set for us as Members of this Committee. My mother's family were ranchers in Arizona. I have always said that ranchers are our original conservationists. Because healthy land means healthy cattle means healthy people. And the same thing can be said for our farmers. Healthy land means healthy crops means healthy people. And so I thank you for the work that you have done, especially in Arizona. We have two projects, two Regional Conservation Partnership Programs that have brought about $6 million to rural Arizona in purchase of materials, hiring local contractors, recreational activities. And that is great. Arizona Game and Fish tells me they have been excellent programs and they have worked really well. You have probably heard me say on this Committee before that I represent 12 land-based Tribes. And so my question to you, both of you, today is what incentives do we have for Tribes in terms of management of their land, their conservation efforts, their natural resources? And what can we do to make sure that they see the same economic benefits that we are seeing on non-Tribal land?</t>
   </si>
   <si>
@@ -187,9 +163,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman, and I thank the panelists as well and agree with some of the sentiment expressed by my colleagues earlier. This is an issue area where we have worked together. I think it is really a great news story. I appreciate the leadership of the Administration on that score.    I do want to echo some of the concerns about the information flow and the June 1 deadline, and I would like to perhaps address another facet of that, which is the challenge, of course, that you are having in completing all these and getting it back out. And I just want assurances that for those that did get their paperwork in prior to June 1, that if they have some inaccuracy on their application, they still get credit for having been sent in by June 1?</t>
   </si>
   <si>
@@ -214,28 +187,16 @@
     <t xml:space="preserve">    Mr. Dolcini. Thank you, sir.    The Chairman. As we make the transition here, I would like to welcome our second panel of witnesses to the table. Mr. Brent Van Dyke, First Vice President of the National Association of Conservation Districts from Hobbs, New Mexico. Mr. Buddy Allen, rice producer, USA Freedom--or USA Rice Federation. That was a legislation a couple of weeks ago, I guess. USA Rice Federation.    Ms. Karen Martynick, Executive Director of Lancaster Farmland Trust from Strasburg, Pennsylvania. I thought it was probably Starsburg when I read it the first time. When it says Strasburg, I am thinking that has to be Starsburg but maybe there is a little township I don't know about in Lancaster County. And Mr. Jim Inglis, Governmental Affairs Representative, Pheasants Forever and the Quail Forever from Upper Sandusky, Ohio.    And our panelists are all in place. Thank you so much for being here to each of you. And Mr. Van Dyke, please begin when you are ready.</t>
   </si>
   <si>
-    <t>Van Dyke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Van Dyke. Well, thank you very much, and good morning, Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee. I thank you for the opportunity to come before you to testify this morning on conservation programs in the 2014 Farm Bill.    I am Brent Van Dyke, First Vice President of the National Association of Conservation Districts, and as a retired agriculture teacher and FFA advisor for 31 years, my wife and I farmed, irrigated alfalfa and Coastal Bermuda hay in Hobbs, and also run a commercial and registered cattle operation in southeastern New Mexico.    NACD in America represents 3,000 soil and water conservation districts and 17,000 elected government officials that take conservation to the local level. The conservation districts are local units of government established under state law to carry out natural resource management programs at the local level.    Conservation districts work with cooperating landowners and operators in all 50 states as well as U.S. territories to help manage and protect land and water resources on private lands as well as lands of the United States. Our nation's farmers and landowners deserve to have long-term certainty to effectively and efficiently manage their land. Locally led conservation is critical for America's long-term environmental and economic stability.    Not only do farm bill conservation programs play a key role in supporting clean air, clean water, and productive soils, they also help producers avoid unnecessary regulation and promote our nation's food security and sustainability.    NACD appreciates the leadership of this Subcommittee in crafting a successful conservation title in the 2014 Farm Bill. We worked closely with the Committee throughout the process in developing the bill and strongly supported its final passage. Since that time, we have remained focused on successful program implementation to ensure programs work efficiently and effectively for landowners. We thank USDA for moving programs forward with an efficient and aggressive implementation process.    In the inaugural year of Regional Conservation Pilot Program, conservation districts are one of the most highly represented entities among the selected proposals. In New Mexico, RCPP is allowing for us to forge new partnerships with other Federal agencies and allowing ranches with Forest Service and BLM permits to do landscape scale projects and management and improvements of their entire operation.    The checkerboard ownership that has made this kind of watershed projects impossible in the past, but this year, last month, as a matter of fact, I met with NRCS Chief Jason Weller in Espanola, New Mexico, where we toured the oldest acequia in the nation. And acequia is a traditional water management system dating back to the Spanish colonial times.    The program has helped fund acequias and other critical irrigation systems through RCPP. This is just one example of the successful projects being implemented at local levels thanks to this new program.    Local soil and water districts also remain key partners within NRCS to efficiently and effectively enroll landowners into two key programs that enable them to best manage their resources on their land, the Conversation Stewardship Program, CSP, and Environmental Quality Incentives Program, better known as EQIP. The 2014 Farm Bill made a historic commitment to maintaining and repairing infrastructure associated with the nation's thousands of small watershed structures. Some of these structures are decades past their original design lifespan. The small watershed program benefits to rural and urban communities across the country add up to stronger infrastructure, better water management, and national disaster mitigation.    Increasing funds for conservation technical assistance remains a top priority for conservation districts in Fiscal Year 2016 agriculture appropriation funding. Districts are uniquely positioned to work with NRCS technical service providers and other partners to expand CTA capacity to get more conservation to the ground. In New Mexico, CTA has been expanded thanks to partnerships that matches Federal funding with state funding.    Before I close, I want to thank the Chairman and Ranking Member for sponsoring the Concurrent Resolution 30, which recognizes the value of locally led soil and water conservation and the role of conservation districts within those efforts across the nation.    The Senate unanimously agreed to the resolution last month, and we look forward to working with you to move it forward in the House.    Thank you for the opportunity to testify today on behalf of the nation's conservation districts and their state and territory associations. I will be happy to answer any questions.</t>
   </si>
   <si>
     <t>412625</t>
   </si>
   <si>
-    <t>Rick W. Allen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Allen. Well, good morning, Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee. I am honored to have opportunity to be before you this morning and give my view on the implementation of the conservation title of the farm bill, Agricultural Act of 2014.    My name is Buddy Allen. I am a producer in Tunica, Mississippi. I grow cotton, rice, soybeans, corn, and wheat. I am passionate about conservation. I am also a partner in a California-based almond farm. I serve as Chairman of the Tunica County Soil and Water Conservation District. I am a member of the Mississippi Rice Council, Mississippi Association of Conservation Districts, Conservation Committee of the USA Rice Federation, and several other state and local conservation groups.    Conservation is a significant part of my agribusiness. As I implement stewardship on my farm, my productivity increases, and it makes me more sustainable. So I am very grateful for the programs that are authorized by this Subcommittee in the Farm Bill of 2014.    I can't thank the Committee enough for the hours and the work you and your staff put into the passage of this farm bill. This piece of legislation provides a safety net that gives farmers certainty and tools to stay in business during tough times, which are now, as has been mentioned already this morning. And it also incentivizes us to invest in valuable conservation practices on our land. Voluntary incentive-based conservation programs are the first line of defense against the need for regulation.    In 2012, the USA Rice Federation and Ducks Unlimited forged a model of collaboration between a farm group and a conservation organization, the Rice Stewardship Partnership. This partnership has been working tirelessly to improve three of the nation's critical, national, and economic resources, working ricelands, water, and waterfowl.    This is an unlikely partnership between our organizations, and it is historic. One of the programs new to the recent farm bill is the Regional Conservation Partnership Program. Key to this program is leveraging Federal funds with private, state, and local assets. It empowers partnerships to design solutions and deliver measurable results. The partnerships draw on local knowledge and resources.    This locally-led approach is critical to the effectiveness of the program. RCPP offers the use of existing conservation programs such as CSP and EQIP to help reach a specified goal and helps to target critical conservation areas where the work is most needed. The partnership submitted in RCPP proposal, which was accepted in January entitled, Sustaining the Future of Rice, this project is a natural fit for our organizations to pursue and offers rice producers from every major rice growing county in each of the six rice growing states the assistance needed to address water quantity, water quality, and wildlife habitat on our farms.    NRCS is providing $10 million in funding to the project leveraged by $6.8 million of cash and in-kind contributions from private sector partners to utilize EQIP and CSP on rice farms. Each of the six states involved are set to receive a minimum of $1 million of the combined funding towards implementation.    One thing that is helpful about the flexibility built into RCPP is the ability to tailor programs such as EQIP and CSP, which as stand alone programs, are not necessarily geared towards rice production. We have been able to do just that and make a particular use of these very successful programs and make them available on rice working lands.    NRCS staff, under the leadership of Chief Weller has worked tirelessly to ensure that this program has been implemented as smoothly as possible. The announcement for program funding stayed very true to the intent of what Congress authorized in the statute and was able to maintain the flexibility of language throughout the application process.    USA Rice and Ducks Unlimited have had a very positive experience during the negotiation process, but because our final contract within NRCS is very complex, we have just recently finalized our agreement last week, as a matter of fact. As an industry, rice producers have put years of work into finding new ways to reduce erosion, reduce water use, save energy, and address a number of other critical conservation priorities. For those unfamiliar with rice production, rice fields are flooded during the growing season to provide water the plants need and control weeds and pests. Because of this unique method of raising a crop in a flooded environment, rice farming, compared to other commodity production, is more sensitive to water quantity, water quality, and soil stability, and they are essential to maintain our operations.    That being said, RCPP is a natural fit for our industry to further our conservation goals. I appreciate the work that all of you have done to ensure that farmers have the tools they need to implement conservation practices on the landscape. It is a vital part of our industry and a necessary investment if we want to leave our farms as a legacy.    Again, thank you for your leadership and the opportunity to offer my testimony, and I would be happy to respond to any questions.</t>
   </si>
   <si>
-    <t>Martynick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Martynick. Thank you. Chairman Thompson and Members of the Subcommittee, my name is Karen Martynick, and I am the Executive Director of Lancaster Farmland Trust, a not-for-profit land trust located in Lancaster County in Pennsylvania, the home state of the Chairman.    It is an honor to testify before you today on the Agricultural Conservation Easement Program, or ACEP, and share with you the perspective of a land trust that has utilized both the farm and ranchland protection program and ACEP.    Lancaster County, Pennsylvania is known as the garden spot of the United States. Just a few miles west of Philadelphia, Lancaster County ranks 15th in the nation in agricultural production. It has the most productive non-irrigated soils in the country. The county's 5,700 farms, 99 percent of which are family owned, contribute $6 billion to the economy each year.    Lancaster County is also a leader in farmland preservation. In 2013, the county became the first county in the country to preserve 100,000 acres of farmland, a remarkable accomplishment when you consider the fact that the average size farm is just 78 acres. Today, there are more that 1,300 preserved farms in Lancaster County, farms that have been preserved utilizing public and private funds.    My comments today are intended to make ACEP as good as it can be. We are deeply appreciative of the work of NRCS staff and this Committee and the partnership we have with them to carry out the goals of ACEP. It is a great step forward, and we think that working together, we can make it even better.    First and foremost, the program must follow the statute. Much work went into making ACEP a new and improved FRPP. However, the rule does not always reflect the language or intent of the statute.    The program should not be overly complicated. Rules and procedures that micro-manage the work of land trusts will make them reluctant to participate. Land trusts have vast experience in protecting natural resources, and the rules should recognize and reflect that experience.    The program must be clear and concise. Decisions must be received in a timely fashion. Our experience with FRPP is that a project could take as long as 2 years to complete, while a project using other government funds can be completed in 6 months or less. Let me give you some specifics.    On the minimum deed terms: There is a contradiction between the statute and the final interim rule on the issue of minimum deed terms. The statute states that a, ``eligible entity shall be authorized to use its own terms and conditions for agricultural land easement so long as the Secretary determines such terms and conditions meet their conditions.''    While this clearly gives eligible entities the ability to use their own language, the interim final rule on ACEP states that eligible entities, ``must use the NRCS required minimum deed terms specified therein.'' This will force Lancaster Farmland Trust, for instance, to use language that does not necessarily fit its program and does not recognize the special characteristics of Lancaster County.    Appraisal reviews: If you ask any land trust what causes the most delays, they would most likely say it is the appraisal review process. Lancaster Farmland Trust works only with certified appraisers. With 1,300 preserved farms in Lancaster County, the appraisers have a wealth of experience determining the value of conservation easements. When we submit an appraisal for review by NRCS, it can take months to get comments back. The reviewers are from other parts of the country and have little knowledge of Lancaster County.    One way to save time would be to stop requiring the reviewers to establish value on a property he has never visited and in an area with which he is not familiar. The reviewer should be charged with determining if the appraisal was done by a certified appraiser and if that appraisal meets all the required criteria. This would save a great deal of time.    Eligible entity certification: The certification is critical to streamlining the ACEP process; however, the terms necessary to achieve certification may be too onerous for land trusts to participate. The manual states that NRCS may require the entity to return any financial assistance provided by NRCS for easements that fail a quality assurance review. However, the manual does not provide criteria for quality assurance review. This provision prevents sufficient financial risk for a land trust like Lancaster Farmland Trust, and we would be unlikely to apply for certification because of that.    Clearly defining the standard about when such a nuclear option would occur would be absolutely necessary for land trusts to participate. These are just three examples of ways in which the interim final rule for the Agricultural Conservation Easement Program could be improved or could be clarified. I have included additional information in the written testimony I submitted.    On behalf of Lancaster Farmland Trust, I thank you for your time this morning and your consideration of my comments. The land trust community is committed to protecting the country's working lands and stands ready to assist NRCS in determining and implementing improvements for the Agricultural Conservation Easement Program. I appreciate your interest and am happy to take any questions you have. Thank you.</t>
-  </si>
-  <si>
-    <t>Inglis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Inglis. Okay. Thank you, Chairman Thompson, Ranking Member Lujan Grisham, and the Members of the Committee. I am the Governmental Affairs Representative with Pheasants Forever and Quail Forever based out of St. Paul, Minnesota. I am a wildlife biologist by education and experience. I grew up on a dairy farm in Western New York, and I currently live in Upper Sandusky, Ohio.    I am here today representing our 750 community-based Pheasants Forever and Quail Forever chapters, and 142,000 members and volunteers that work every day to promote and implement conservation programs. To compliment the work of our dedicated volunteers, we have a team of Farm Bill Biologists that work as natural resource professionals that have expertise in wildlife biology, forestry and range management. They work with landowners to find the best voluntary conservation solutions that fit the needs as part of their agriculture operations and their personal goals.    Over the last 12 years, these Farm Bill Biologists have worked with landowners in over 148,000 projects covering 5.1 million acres. These projects involve the establishment of quality conservation practices that improve soil health, water quality, and provide habitat benefits to a wide variety of wildlife, not only pheasants and quail but other species such as the Golden-winged warbler in Pennsylvania, Lesser Prairie chicken in the Southern Great Plains, Elk and Sage Grouse in the West, and honey bees and Monarch butterflies throughout our great country.    In addition, all Americans benefit from these conservation practices that improve the soil health, water quality and quantity. We are here today to discuss conservation program implementation, and I would like to spend a few minutes to highlight a couple of them. First of all, I would like to highlight the Conservation Reserve Program that we have heard quite a bit about here this morning. CRP celebrates its 30th anniversary this year. Farmers, ranchers, landowners, and sportsmen will tell you that the program has been and continues to be very popular and productive.    We support CRP's ability to deliver a variety of conservation practices to landowners that address landscape-scale wildlife and natural resource concerns. This would include options to sign up conservation practices during a general CRP sign-up period but also having more targeted practices that are available through the year.    We supported Secretary Vilsack's recent announcement that USDA will host a general signup at the end of this calendar year, as well as adding 800,000 additional continuous acres. We are thankful to have the opportunity to work with USDA to make improvements to CRP to better carry out the intent of Congress by providing conservation benefits for taxpayers as well as the technical and financial resources for landowners and farmers.    Included in my written testimony are details on the CRP implementation recommendations that several sportsmen and wildlife groups recently drafted for USDA and FSA leadership at their request.    I would also like to highlight the Regional Conservation Partnership Program. We are one of 22 partners in the regional grassland, bird and grazing land enhancement project being coordinated by the Missouri Department of Conservation and implemented in four states: Missouri, Iowa, Nebraska, and Kansas. The partnership utilizes NRCS' Environmental Quality Incentives Program and agricultural land easement funds to improve forage quality on grazing lands while benefiting Bobwhite quail, and the Greater Prairie chicken, and numerous other grassland wildlife.    Ultimately, we are enhancing these working land grazing systems making them more productive and more resilient to periods of drought. Preliminary signup results, just in the last couple of weeks, suggest that there is going to be more interest from landowners than funds available. One of our organization's top priorities, along with many of our partners, are to maximize the wildlife benefit, soil health, and water quality on as many acres of farms, fields, ranches, forestlands as possible.    For example, this would include considering individual species' lifecycle needs in the design of conservation plans, such as addressing limiting factors of pollinators in that area. This could also be accomplished by something as simple as using updated seeding specifications and management techniques that would establish and maintain a diversity of vegetative cover but also addresses soil, water, and wildlife concerns.    CRP Mid Contract Management is another great example of having tools available to maximize the benefit to the program throughout the length of the contract.    I need to emphasize that these successes would not be possible without the numerous partnerships that we have across the country, especially with the Natural Resources Conservation Service, Farm Service Agency, and the state fish and wildlife agencies. There are hundreds of partnerships at the state and local levels around the country that leverage the Federal funds for the implementation of the individual conservation programs and practices and for the boots on the ground to deliver them.    Mr. Chairman, in closing, we often hear the term ``precision agriculture'' is going to be the way of future, and with the technology and partnerships we have available across this great country, we can also have precision conservation. The voluntary incentive-based conservation programs in the farm bill clearly give us the tools to accomplish that. I thank you for the opportunity to be here, and I look forward to any questions.</t>
@@ -673,11 +634,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -697,13 +656,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -723,13 +680,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,13 +704,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,13 +728,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,13 +752,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,13 +776,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -853,13 +800,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -879,13 +824,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -905,13 +848,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -931,13 +872,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -957,13 +896,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -983,13 +920,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1009,13 +944,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1035,13 +968,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1061,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1087,13 +1016,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1113,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1139,13 +1064,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1165,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1191,13 +1112,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1217,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1243,13 +1160,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1269,13 +1184,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1295,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1321,13 +1232,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1347,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1373,13 +1280,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1399,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1425,13 +1328,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1451,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1477,13 +1376,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1503,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1529,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1555,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1581,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1607,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1633,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1659,13 +1544,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1685,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1711,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>66</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1737,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1763,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1789,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>73</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1815,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>66</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1841,13 +1712,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1867,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1893,13 +1760,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1919,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
         <v>66</v>
-      </c>
-      <c r="H50" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1945,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1971,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1997,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2023,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s">
-        <v>71</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2049,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>73</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2075,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2101,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s">
-        <v>69</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,24 +55,42 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Kuster</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kuster. Good morning. I am pleased to be here today for the Subcommittee's first in-depth look at the implementation of the Agricultural Act of 2014's Title II conservation programs.    I want to thank Chairman Thompson and our Ranking Member, Ms. Lujan Grisham, for holding this important hearing and for their leadership on this Subcommittee. The 2014 Farm Bill made reforms to the conservation title in order to make conservation programs more efficient, effective, and user-friendly for producers. These programs serve as important tools that our farmers and ranchers use to improve water quality, mitigate drought, and improve soil health.    From New Mexico to New Hampshire, conservation programs like the Conservation Stewardship Program and the Environmental Quality Incentives Programs, EQIP, are helping farmers and ranchers endure drought conditions and allowing rural families to remain on their land and ranches. In fact, New Mexico is one of the leading states in CSP with close to 1 million acres enrolled and funded through this program. In addition to these traditional conservation programs, New Mexico has also benefited from the Regional Conservation Partnership Program, which is one of the new conservation programs the farm bill created.    The RCPP aims to encourage innovative partnerships through a Federal/non-Federal cost-share in order to accomplish important conservation work at a watershed level. New Mexico's four RCPP projects are going to help the state prevent wildfires, combat invasive species, and preserve traditional communal irrigation systems. I am disappointed that our conservation programs have endured some cuts that will ultimately mean fewer resources for farmers and ranchers. But I am looking forward to hearing how this Committee can continue to support these programs which are vital in protecting rangelands, wildlife habitat, and water quality.    I thank the witnesses for taking the time to be here with us today and share their testimony and expertise. And on behalf of Representative Lujan-Grisham, I want to extend a special welcome to Brent Van Dyke from New Mexico on the second panel. I look forward to the discussion. And with that, Mr. Chairman, we yield back.    The Chairman. I thank the gentlelady. I am actually pleased to acknowledge the presence of our full Committee Chairman who I understand does not have an opening statement. But I want to wish him a very happy birthday today.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Well I thank the Chairman. I appreciate that and yield back. I appreciate the birthday wish. Thank you.    The Chairman. I appreciate you sharing your birthday with the Subcommittee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Conaway. Actually I am sharing it with a baseball team tonight. That is our secret weapon. To win the Congressional baseball game tonight is my birthday present to myself, and it will be a victory by the Republicans. I yield back.    The Chairman. I am pleased to recognize the full Agriculture Committee Ranking Member, Mr. Peterson, for an opening statement.</t>
   </si>
   <si>
+    <t>Peterson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peterson. Well thank you, Mr. Chairman. And thank you for holding this hearing. And I want to thank the folks from the Department and their hard work and the other witnesses that are here. And Chief Weller, I thank you for the work you have done on the RCPP in our part of the world. We appreciate that. And we continue to work on implementing that. So that has been very much appreciated.    I just want to bring up a couple concerns that I have heard too. I haven't looked into this as much, but I have been having farmers talk to me here the last month or 2 that they are not able to qualify to get back into the CSP. I don't know exactly what is going on, if it is a limitation on the dollars or what it is. But I have had two or three of them talk to me about it. Mostly, I want to discuss the CRP a little bit.    A history lesson for those that haven't followed farm policy since 1985, which is a long time ago, the original CRP program was not a conservation program. The original CRP program was to reduce production because prices had collapsed, we had to get land out of production because we had too much production. And so we set up the CRP as a production control mechanism. Back in the 1950s, we had the forerunner, the Soil Bank. And back in those days, in my area, my home county, we had pheasants and ducks all over the place. And then Eisenhower, Ezra Taft Benson, came in, got rid of it. And I have been around too long.    And we today haven't got a pheasant or a duck in that county. And the reason is we lost the Soil Bank and we never got it back in. Because by the time we reestablished the CRP program, that land had become too valuable. And it is all being farmed. So what I am concerned about is that we have added environmental factors into the CRP as we have gone along. Back in 1996, the one thing that was positive in the 1996 Farm Bill was that I convinced Chairman Roberts to raise the cap on CRP to 36 million acres. What that did is it spread out CRP all over the country. And it put in a lot of big tract CRP, which is the main reason why wildlife really responded to the CRP program. Because we had big tracts of half a section or a section where you could spread the predators out and they weren't able to zero in and wipe out all the wildlife like they do on the wildlife management areas in these 40 acre tracts and so forth. So that was really positive.    But as we have gone forward, we keep putting more and more restrictions on the CRP. And we are narrowing where this can be, where people can get in. And I am concerned that where we are heading with CRP is going to really erode the wildlife benefits of the program. And we still have in the statute that \\1/3\\ of this is supposed to be wildlife benefits, which are supposed to be one of the primary reasons for the CRP.    So I am somewhat disappointed and I have had discussions with the Secretary about the fact that we are not having a general sign-up this year. They have extended the contracts another year. And there is going to be a sign-up, as I understand it, probably the 1st of December, which, for Minnesota, that means nothing happens until the year after this. So I am concerned about the fact that we are not doing it this year. And there was an announcement made, there is going to 800,000 acres targeted. And, frankly, I am a little bit concerned about that. Because what we are doing, once again, is pushing all of these targeted programs which are okay to some extent. But \\1/2\\ of the 800,000 acres is going to go to be SAFE acres which are basically controlled by the state DNRs. And they have their agenda.    And there is another 300,000 acres for nesting habitat which, apparently, you have to be able to prove that you have nesting pairs of ducks in your field in order for you to qualify. I am not that familiar with it. But that is what I have been told. And then we have the wetland restoration which makes you plug ditches and allow the wetlands to be restored which, I guess, means you are going to have wetlands on your land from that time forward, which has caused some controversy.    And so these targeted programs have contributed to people setting up folks to help get people into these programs. And so in North Dakota, we have a big controversy that has developed because Ducks Unlimited have put a whole bunch of biologists in the FSA offices in North Dakota. And part of the criticism is that we have not funded the technical assistance, so this is necessary. But what is happening is they are pushing people into these other programs and now there is a backlash going on in North Dakota where they want to have a, they are talking about having a bill to tell them they can't have Ducks Unlimited people involved. So it has created some controversies out there.    So I am a little concerned about where we are headed with all this. And I just think as we get to the next general sign-up, I just hope that we can ramp down some of these environmental things so that we can still have big tract CRPs spread across the country and get these wildlife benefits, in addition to the environmental benefits. So with that, Mr. Chairman, I will yield back. And, again, I appreciate you having this hearing.    The Chairman. I thank the gentleman. The gentleman yields back. The chair would request that other Members submit their opening statements for the record so the witnesses may begin their testimony, to ensure there is ample time for questions.    The chair would like to remind Members that they will be recognized for questioning in order of seniority for Members who were present at the start of the hearing. After that, Members will be recognized in the order of arrival. I appreciate the Members' understanding.    Witnesses are reminded to limit their oral presentations to 5 minutes. All written statements have been distributed ahead of time and will be included within the record.    I would like to welcome our first panel witnesses who are at the table. Chief Jason Weller, Natural Resources Conservation Service, and Administrator Val Dolcini, Farm Service Agency. Thank you, gentlemen for being here today and for your leadership. And Chief Weller, please begin whenever you are ready.</t>
   </si>
   <si>
+    <t>Weller</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weller. Well good morning, Mr. Chairman, and Ranking Member Lujan Grisham. Nice to see you. And I appreciate very much the opportunity to be here before the Committee this morning. And if nothing else, I just want to express the gratitude and how grateful I am for the authorities and the resources this Committee provides to USDA and the stewardship you provide for America's private lands incentive-based conservation programs.    Through the 2014 Farm Bill, what you provided, what you crafted in that bill provides USDA enormous flexibilities and authorities to go out, in partnership with farmers and ranchers, deliver real results for agriculture, to help them maintain, if not boost their production, but also then help them manage their natural resource challenges in a way that is really effective. And in that farm bill, as you know, you have streamlined a lot of programs. You have maintained flexibilities, even enhanced flexibilities, and then really emphasized the value and the importance of partnerships.    And so with these authorities, on behalf of NRCS, we have been able to deliver very significant results just in the last year alone. But also looking back over previous farm bills too, there are some very significant results across America that I would like to talk about very briefly this morning. The bottom line is you can be extremely proud of the work that is being done in partnership with producers through the programs and authorities that you have authorized and funded through your hard work in the 2014 Farm Bill.    Speaking of birthdays, Mr. Chairman, our agency celebrated our 80th birthday 2 months ago. So 2 weeks after Black Sunday in April 1935, President Roosevelt, in partnership with Congress, enacted and put into law what created the Soil Conservation Service. So 80 years of history working in partnership with farmers and ranchers, on a collaborative voluntary basis, working with soil and water conservation districts, state agencies and other private partners across America. I am very honored to represent the 10,000 professionals that work at NRCS, work in field offices across America, in state offices, in centers, and in national headquarters. These men and women are true professionals. They do a lot of unheralded work that, in my view, is very honorable and is very valuable. And it is truly on behalf of America's farmers and ranchers. I am very honored to represent NRCS and hopefully convey a little bit about the results we are helping to deliver in partnership with producers.    So, first, let me talk a little bit about some of the soil benefits. In the Chesapeake Bay region alone, since 2006, producers have put in place effective conservation practices to reduce sediment loss from their crop fields, upwards of 62 percent. That translates into over 15 million tons of sediment that no longer flows in the Chesapeake Bay estuary. That is enough sediment to fill 150,000 train cars which would stretch from D.C. to Albuquerque, New Mexico every year.    In terms of soil health, Mr. Chairman, you hosted and invited us to participate in a soil health briefing last year. And we heard from producers like Mr. Groff from Pennsylvania on how they have experimented and put in place soil health management practices. In the case of Mr. Groff, he manages 225 acres in Pennsylvania. He has put in place soil health systems going back decades. And he reports yield boosts of upward of ten percent above local averages because of cover crops and wise tillage practices he has in place.    Well since 2012, NRCS, through your programs, has put in place 3.7 million acres of cover crops, to help farmers put in place 1.7 million acres of no-till practices, to help protect the soils. And in periods of drought, back in 2012, when producers were surveyed in the heartland states, this one practice alone, cover crops, produces a reported yield benefits of 12 to 15 percent for corn and beans above conventional farmers that did not incorporate cover crops as part of their rotation.    In terms of water, sometimes there is too much, sometimes there is too little, and sometimes we need to protect the water we have. In terms of water protection, because of the programs that you have authorized, we have partnered with producers in Arkansas to focus results. And because of that collaborative approach to protect water resources, the State of Arkansas is going to be able to de-list two waters from the section 303(d) impaired lists in Arkansas. And in Mr. Lucas' home State of Oklahoma, since 2007, the state, NRCS in partnership with Oklahoma Conservation Commission, de-listed upwards of 40 streams and river segments in the state, 900 miles of stream segments taken off 303(d) lists because of positive proactive conservation on behalf of farmers.    In terms of water conservation, the Ogallala Aquifer Region, in over 4 years we have put in place an effective irrigation efficiency practice with farmers that we estimate save 1.5 million acre feet of water. That is enough water to supply drinking water for 3.3 million households every year, an incredible quantity of water that is sustaining the healthy aquifer, maintaining productivity in the agricultural heartland, and also allowing for industry and municipalities to have access to that important water.    Sometimes it rains too much like in Oklahoma and Texas. Because of wise investments that this Committee has made in previous decades, we estimate we have helped protect and prevent $130 million worth of flood damages that would have occurred but for the infrastructure. This Committee, in the 2014 Farm Bill, invested in the rehab programs to help protect that infrastructure investment. And because of the wise investments, we were able to protect hundreds of thousands of families, communities, homes, public infrastructure, railways, bridges, schools, and hospitals, because of the hard work this Committee put in place.    One final example, in terms of animals, just incredible benefits on wildlife. And, oftentimes, wildlife can be the best indicator. When you manage your forests, your grasslands, your crop fields effectively, nature will respond. Just 2 weeks ago with the Louisiana black bear, Secretary Jewell, Governor Jindal proposed removing the Louisiana black bear from the endangered species list, because of investments through private lands conservation easements.    In Louisiana alone, over 217,000 acres were put in place through the Wetlands Reserve Program. And because of wise targeting and partnership with the state, we helped put in place a network of habitat that is good for protecting farmlands, protecting the values of those lands, but also protecting wetland resources, migratory bird resources. In this case, the Louisiana black bear.    North in Montana, the Arctic Fluvial Grayling was taken off the candidate list because of actions of producers, of ranchers. In Oregon, the Oregon chub, was the first fish in history to be taken off the list not because it was extinct or extirpated, but because it came back. Conservation investments through your authorities brought the Oregon chub back from a population of less than 1,000 fish, today over 140,000 fish and growing.    And then, most recently, the bi-state population of sage grouse on the border between California and Nevada, taken off the candidate list. Again, because of proactive investments through private lands conservation and the partnership of private landowners, ranchers, making a difference on their operations, going to keep them intact, keep them operating, keep them on their land, but also, in this case, keep the bird off the endangered species list.    Thank you very much, Mr. Chairman, for inviting me here today. And I look forward to your questions.</t>
   </si>
   <si>
+    <t>Dolcini</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Dolcini. Thank you, sir. Mr. Chairman, Members of the Subcommittee, I appreciate this opportunity to discuss FSA's implementation of the farm bill's conservation title. Like Chief Weller, I would like to thank this Subcommittee and the full Committee in this Congress and in past Congresses for the support that you have shown our programs, our people, and our resources. And like Chief Weller, I want to call out the hard work of 15,000 FSA employees in 2,124 service centers across this country, along with the 7,000 or so farmer-elected county committee men and women that support the work of FSA. They are our competitive edge. It is not the work that I do here in Washington, it is the work that is done in the field every day.    And to stay on the birthday band wagon, I will start my testimony with a note that the Conservation Reserve Program turns 30 this year. And so we are celebrating all year long the 30th anniversary of conservation achievements across the American landscape. CRP is a voluntary program that allows USDA to contract with farmers and ranchers so that environmentally sensitive lands and lands with wildlife benefits are not farmed or ranched, but, instead, are used for conservation benefits. Participants establish long-term covers, such as approved grasses or trees, to control erosion and water quality. And, in return, we provide participants with rental payments, cost-sharing, and other incentives for the period of the contract. CRP restores habitat for ducks, pheasants, deer, and other wildlife. And in doing so, it spurs hunting, fishing, recreation, tourism, and other forms of local economic development. We have a large number of partners who work collaboratively with FSA and contribute to these achievements, including our sister agency, NRCS, as well as numerous non-Federal partners that you will hear from later this morning.    Currently, 24.3 million acres are enrolled in CRP contracts, including 18.1 under general sign-up authority and 6.2 million under continuous sign-up authority. CRP contracts on 1.9 million acres will expire at the end of this fiscal year. With the enactment of the farm bill, the total number of CRP acres that can be enrolled nationwide has been reduced from 32 to 24 million beginning in Fiscal Year 2017. And as a result, we anticipate that CRP will increasingly focus on the most sensitive acreage and that the sign-ups will be increasingly competitive. To target this high-benefit acreage, Secretary Vilsack announced on May 29 that an additional 800,000 acres would be available under certain continuous authorities, including, as Congressman Peterson pointed out, 300,000 acres for duck habitat, 100,000 acres for wetlands, and 400,000 acres for the SAFE acre program.    He also announced that the next general enrollment period will begin on December 1 and will conclude on February 26 of 2016. Participants with eligible CRP contracts that expire this fiscal year will be provided an option on a 1 year extension. USDA also restarted continuous enrollment activity in the Transitions Incentive Program, the TIP program. This encourages transfer of expiring CRP lands to beginning and socially-disadvantaged farmers and ranchers. Other farm bill provisions, such as changes to haying and grazing, tree thinning and grasslands, require rulemaking and National Environmental Policy Act analysis. Both of these efforts are underway and both are nearing completion.    The 2014 Farm Bill also requires compliance with highly-erodible land and wetland conservation requirements in order to be eligible for crop insurance premium subsidies. While most farmers have a certification form on file, I would say many farmers do, USDA conducted informational meetings and training sessions all across the country for those who may not. And we reached tens of thousands of stakeholders to ensure that affected producers who filed their form by the June 1 deadline can remain eligible for premium supports during the 2016 reinsurance year.    In light of recent natural disasters, such as the serious flooding we have seen in Oklahoma and Texas and continued drought conditions in California and elsewhere in the West, I would like to also reemphasize the importance of our Emergency Conservation Program. ECP provides emergency funding and technical assistance to help farmers and ranchers rehabilitate farmland damaged by natural disaster. It also helps livestock producers enhance water supplies during severe drought. And we are standing by to assist states in need with that program.    Mr. Chairman, Members, as you have noted, our nation's farmers and ranchers are dedicated stewards of land conservation. For 30 years, their participation in CRP has prevented billions of tons of soil from eroding, reduced nitrogen and phosphorus run-off significantly, sequestered millions of tons of greenhouse gasses, and has protected about 170,000 miles of streams and creeks throughout this nation. Last month, we also reached the 1 million acre milestone in the SAFE acre program. And throughout the course of the year, we will be highlighting success stories from all over the nation to mark 30 years of successful CRP conservation work.    Farmers and ranchers are doing great things to conserve the environment in your Congressional districts and to build habitat. And they can count on FSA's support in those efforts. This concludes my testimony. And I am happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>412558</t>
   </si>
   <si>
+    <t>Lujan Grisham</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lujan Grisham. Thank you very much, Mr. Chairman. Chief Weller and Administrator, thank you very much for being here. I agree, the entire Committee, appreciates your efforts and diligence. And the update of that, how we are proceeding and updating the latest investments and new authorities in the farm bill. Chief Weller, in your testimony and in your written testimony as well, you have mentioned the importance of the conservation programs and investments and their impact on yields and endangered species listings. Specifically today you talked about two, the Louisiana black bear and the Oregon chub. I really appreciate that because in that context, that is what we all want those positive end results, but I continue to hear, of course, concerns in my state and district from landowners and the industry about how listing of a species impacts their livelihood and their businesses. And I also hear, frankly and interestingly enough, those same concerns from environmental and conservation groups on how species population numbers and those critical habitats continue to shrink.    It is clear to me that both these groups may have a different means to an end, but they are concerned, quite frankly, about the very same things. They want to protect species. And they want to prevent listings. And I have seen stakeholders from many different backgrounds, frankly, come together and work toward this goal very successfully. And I will give you an example. In 2011, the oil and gas industry in my state was very concerned about the dunes sagebrush lizard listing that would eliminate drilling in the Permian Basin which produces 20 percent of all the oil in the lower 48 states. Now, as you might imagine, this has a significant set of consequences not only for my state and district, but for the entire country. Now, thankfully, the listing was avoided because landowners in New Mexico and Texas proactively took steps to remove the threats to the listing on 600,000 acres which covered 88 percent of the lizard's habitat. What I would love to do is replicate those efforts as often as I can. And I believe, of course, that NRCS is in a position to encourage real innovation.    What I worry about, however, is that stakeholders continue to tell me they don't have the information or the resources that they need to adequately participate in the conservation programs or to collaborate effectively so that they can have those kind of results. So I would love it if you would walk me through and describe what kind of outreach is going on, how are we educating and engaging landowners in the conservation programs. And as you do that, how you are encouraging them, as you reach out to that group of stakeholders, to have relationships with the environmental community, not only in their communities and their states but around the country so that you achieve the successes that you identified in your testimony and I identified in my question.</t>
   </si>
   <si>
@@ -97,6 +124,12 @@
     <t>400247</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman. And perhaps for a moment before we get into a lot of the details, considering the 80th anniversary of the founding of the NRCS's predecessor not many days ago, the 30th anniversary of CRP, we almost need to take a victory lap here, consider the progress and the great accomplishments of your predecessors out there, gentleman, over the course of the last 80 years. And, for that matter, our predecessors here. In my region of the country, in the last 4\\1/2\\, 5 weeks have had 22" of rain. I average 24-28" a year on the farm where I live. In 2011, we had 14" for the entire year. It came at the wrong time of the year. And for the first time in my memory or the memory of any senior members of my community, we actually had substantial amounts of native grasses in the pastures die from dry freezes in the wintertime. We have bounced back and forth through these weather patterns. And in this last calendar year, another 14" of rain.    The fact that we could go 5 years in the Southwest region of the country, where the Chairman and I are from, through those kind of conditions and not have the most amazing dust storms, not have the most amazing environmental collapse is an amazing compliment to the work of your predecessors and to the work of our predecessors on this Committee, absolutely amazing. And then to have Mother Nature change course and drop 22" of rain where I live in 4-5 weeks and not have massive flooding, massive loss of human life, massive degrading of the environment, the wildlife up and down those streams is a statement once again about the work of all of our predecessors. The upstream flood control programs, the rehab programs, all of those things. So in the very cynical world that we live in, it is worth acknowledging for just a moment we have done some good stuff together here in the course of 80 years. And it gives us a tremendous foundation to build forward.    The Ranking Member alluded to the CRP situation. And he is exactly right. CRP, in its earlier reincarnation, was a creation, was the Soil Bank of the 1950s, a response to the price issues facing production agriculture. An acknowledgment that the programs from that period back to the AAA Act of 1933 had not always been cost effective or effective in providing relief. The Soil Bank, at least from the perspective of my predecessors in the early 1960s came to an end because it began the dramatic depopulation of the southern plains. You put your farm in the program, you sold your equipment, you moved to wherever the kids lived. We re-encountered that in the 1985 program. But that said, the effect that it has had on the environment, on the wildlife, on a variety of things across the country is without measure. At the time, the Ranking Member and I in this Committee worked to put the 2014 Agricultural Act together, we had $7 corn for much of that period. CRP, being a voluntary program, 7 million acres approximately, we predicted, would come out. And under the Budget Act of 1974, which I am not as impressed with as I have been impressed with all our conservation actions of the last 80 years, we were compelled to reduce the number of authorized acres to reflect what the market decisions were being made in order to preserve that revenue stream to be able to do the farm bill, as the Ranking Member well knows. We don't have $7 corn anymore. We have amazing weather patterns around the country.    At some point, as a Committee, we have to reassess our CRP situation. Wouldn't you agree, Mr. Ranking Member? We have to reassess that. But that said, we have a vehicle that is both good for the farm economy generally and good for wildlife generally that we can work with. And that is the legacy of the 2014 Agricultural Act. It has built off the good work for generations. If I get a little wound up, understand that I come from and live in that region on the east side of the Rockies, in the southern part of the plains, it was so miserably horrible in the 1930s, thanks to Mother Nature and thanks to, in many cases, bad policy decisions. That same area that went through the drought of the 1950s, that same area that went through the horrible economic bust of the 1980s. Once again, many bad policy decisions. I just encourage all of us at this hearing to think not only about the circumstances now, but 5, 10, 20, 25 years down the road, to build off of the work that has been laid for us, to make sure that by accident or intention, we never have another 1930s or 1950s or 1980s. That is our responsibility. Again, gentlemen, thank you for your good work. And, Mr. Director, everything that you can do when it comes to the issue of the AD-1026s that Chairman Thompson referenced. We, as Members who spend a lot of time at home, may be about to discover that a lot of farmers perhaps didn't pay quite as close attention to their mail as they should have. And we will have to address that when the time comes. I yield back, Mr. Chairman.    The Chairman. I thank the gentleman. I am now pleased to recognize the full Committee Ranking Member, Mr. Peterson, for 5 minutes.</t>
   </si>
   <si>
@@ -145,6 +178,9 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you, Mr. Chairman and Ranking Member, for having this hearing. And I first want to take a moment just to thank my colleagues, Representative Lucas from Oklahoma and Representative Peterson from Minnesota, for their leadership on this Committee. And it just really shows that when we come together in a thoughtful, commonsense way, we can enact policy that makes our country better. And I just want to publicly thank them for their leadership and their example that they set for us as Members of this Committee. My mother's family were ranchers in Arizona. I have always said that ranchers are our original conservationists. Because healthy land means healthy cattle means healthy people. And the same thing can be said for our farmers. Healthy land means healthy crops means healthy people. And so I thank you for the work that you have done, especially in Arizona. We have two projects, two Regional Conservation Partnership Programs that have brought about $6 million to rural Arizona in purchase of materials, hiring local contractors, recreational activities. And that is great. Arizona Game and Fish tells me they have been excellent programs and they have worked really well. You have probably heard me say on this Committee before that I represent 12 land-based Tribes. And so my question to you, both of you, today is what incentives do we have for Tribes in terms of management of their land, their conservation efforts, their natural resources? And what can we do to make sure that they see the same economic benefits that we are seeing on non-Tribal land?</t>
   </si>
   <si>
@@ -163,6 +199,12 @@
     <t>412453</t>
   </si>
   <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gibson. Well, thanks, Mr. Chairman, and I thank the panelists as well and agree with some of the sentiment expressed by my colleagues earlier. This is an issue area where we have worked together. I think it is really a great news story. I appreciate the leadership of the Administration on that score.    I do want to echo some of the concerns about the information flow and the June 1 deadline, and I would like to perhaps address another facet of that, which is the challenge, of course, that you are having in completing all these and getting it back out. And I just want assurances that for those that did get their paperwork in prior to June 1, that if they have some inaccuracy on their application, they still get credit for having been sent in by June 1?</t>
   </si>
   <si>
@@ -187,16 +229,31 @@
     <t xml:space="preserve">    Mr. Dolcini. Thank you, sir.    The Chairman. As we make the transition here, I would like to welcome our second panel of witnesses to the table. Mr. Brent Van Dyke, First Vice President of the National Association of Conservation Districts from Hobbs, New Mexico. Mr. Buddy Allen, rice producer, USA Freedom--or USA Rice Federation. That was a legislation a couple of weeks ago, I guess. USA Rice Federation.    Ms. Karen Martynick, Executive Director of Lancaster Farmland Trust from Strasburg, Pennsylvania. I thought it was probably Starsburg when I read it the first time. When it says Strasburg, I am thinking that has to be Starsburg but maybe there is a little township I don't know about in Lancaster County. And Mr. Jim Inglis, Governmental Affairs Representative, Pheasants Forever and the Quail Forever from Upper Sandusky, Ohio.    And our panelists are all in place. Thank you so much for being here to each of you. And Mr. Van Dyke, please begin when you are ready.</t>
   </si>
   <si>
+    <t>Van Dyke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Van Dyke. Well, thank you very much, and good morning, Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee. I thank you for the opportunity to come before you to testify this morning on conservation programs in the 2014 Farm Bill.    I am Brent Van Dyke, First Vice President of the National Association of Conservation Districts, and as a retired agriculture teacher and FFA advisor for 31 years, my wife and I farmed, irrigated alfalfa and Coastal Bermuda hay in Hobbs, and also run a commercial and registered cattle operation in southeastern New Mexico.    NACD in America represents 3,000 soil and water conservation districts and 17,000 elected government officials that take conservation to the local level. The conservation districts are local units of government established under state law to carry out natural resource management programs at the local level.    Conservation districts work with cooperating landowners and operators in all 50 states as well as U.S. territories to help manage and protect land and water resources on private lands as well as lands of the United States. Our nation's farmers and landowners deserve to have long-term certainty to effectively and efficiently manage their land. Locally led conservation is critical for America's long-term environmental and economic stability.    Not only do farm bill conservation programs play a key role in supporting clean air, clean water, and productive soils, they also help producers avoid unnecessary regulation and promote our nation's food security and sustainability.    NACD appreciates the leadership of this Subcommittee in crafting a successful conservation title in the 2014 Farm Bill. We worked closely with the Committee throughout the process in developing the bill and strongly supported its final passage. Since that time, we have remained focused on successful program implementation to ensure programs work efficiently and effectively for landowners. We thank USDA for moving programs forward with an efficient and aggressive implementation process.    In the inaugural year of Regional Conservation Pilot Program, conservation districts are one of the most highly represented entities among the selected proposals. In New Mexico, RCPP is allowing for us to forge new partnerships with other Federal agencies and allowing ranches with Forest Service and BLM permits to do landscape scale projects and management and improvements of their entire operation.    The checkerboard ownership that has made this kind of watershed projects impossible in the past, but this year, last month, as a matter of fact, I met with NRCS Chief Jason Weller in Espanola, New Mexico, where we toured the oldest acequia in the nation. And acequia is a traditional water management system dating back to the Spanish colonial times.    The program has helped fund acequias and other critical irrigation systems through RCPP. This is just one example of the successful projects being implemented at local levels thanks to this new program.    Local soil and water districts also remain key partners within NRCS to efficiently and effectively enroll landowners into two key programs that enable them to best manage their resources on their land, the Conversation Stewardship Program, CSP, and Environmental Quality Incentives Program, better known as EQIP. The 2014 Farm Bill made a historic commitment to maintaining and repairing infrastructure associated with the nation's thousands of small watershed structures. Some of these structures are decades past their original design lifespan. The small watershed program benefits to rural and urban communities across the country add up to stronger infrastructure, better water management, and national disaster mitigation.    Increasing funds for conservation technical assistance remains a top priority for conservation districts in Fiscal Year 2016 agriculture appropriation funding. Districts are uniquely positioned to work with NRCS technical service providers and other partners to expand CTA capacity to get more conservation to the ground. In New Mexico, CTA has been expanded thanks to partnerships that matches Federal funding with state funding.    Before I close, I want to thank the Chairman and Ranking Member for sponsoring the Concurrent Resolution 30, which recognizes the value of locally led soil and water conservation and the role of conservation districts within those efforts across the nation.    The Senate unanimously agreed to the resolution last month, and we look forward to working with you to move it forward in the House.    Thank you for the opportunity to testify today on behalf of the nation's conservation districts and their state and territory associations. I will be happy to answer any questions.</t>
   </si>
   <si>
     <t>412625</t>
   </si>
   <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Allen. Well, good morning, Chairman Thompson, Ranking Member Lujan Grisham, and Members of the Subcommittee. I am honored to have opportunity to be before you this morning and give my view on the implementation of the conservation title of the farm bill, Agricultural Act of 2014.    My name is Buddy Allen. I am a producer in Tunica, Mississippi. I grow cotton, rice, soybeans, corn, and wheat. I am passionate about conservation. I am also a partner in a California-based almond farm. I serve as Chairman of the Tunica County Soil and Water Conservation District. I am a member of the Mississippi Rice Council, Mississippi Association of Conservation Districts, Conservation Committee of the USA Rice Federation, and several other state and local conservation groups.    Conservation is a significant part of my agribusiness. As I implement stewardship on my farm, my productivity increases, and it makes me more sustainable. So I am very grateful for the programs that are authorized by this Subcommittee in the Farm Bill of 2014.    I can't thank the Committee enough for the hours and the work you and your staff put into the passage of this farm bill. This piece of legislation provides a safety net that gives farmers certainty and tools to stay in business during tough times, which are now, as has been mentioned already this morning. And it also incentivizes us to invest in valuable conservation practices on our land. Voluntary incentive-based conservation programs are the first line of defense against the need for regulation.    In 2012, the USA Rice Federation and Ducks Unlimited forged a model of collaboration between a farm group and a conservation organization, the Rice Stewardship Partnership. This partnership has been working tirelessly to improve three of the nation's critical, national, and economic resources, working ricelands, water, and waterfowl.    This is an unlikely partnership between our organizations, and it is historic. One of the programs new to the recent farm bill is the Regional Conservation Partnership Program. Key to this program is leveraging Federal funds with private, state, and local assets. It empowers partnerships to design solutions and deliver measurable results. The partnerships draw on local knowledge and resources.    This locally-led approach is critical to the effectiveness of the program. RCPP offers the use of existing conservation programs such as CSP and EQIP to help reach a specified goal and helps to target critical conservation areas where the work is most needed. The partnership submitted in RCPP proposal, which was accepted in January entitled, Sustaining the Future of Rice, this project is a natural fit for our organizations to pursue and offers rice producers from every major rice growing county in each of the six rice growing states the assistance needed to address water quantity, water quality, and wildlife habitat on our farms.    NRCS is providing $10 million in funding to the project leveraged by $6.8 million of cash and in-kind contributions from private sector partners to utilize EQIP and CSP on rice farms. Each of the six states involved are set to receive a minimum of $1 million of the combined funding towards implementation.    One thing that is helpful about the flexibility built into RCPP is the ability to tailor programs such as EQIP and CSP, which as stand alone programs, are not necessarily geared towards rice production. We have been able to do just that and make a particular use of these very successful programs and make them available on rice working lands.    NRCS staff, under the leadership of Chief Weller has worked tirelessly to ensure that this program has been implemented as smoothly as possible. The announcement for program funding stayed very true to the intent of what Congress authorized in the statute and was able to maintain the flexibility of language throughout the application process.    USA Rice and Ducks Unlimited have had a very positive experience during the negotiation process, but because our final contract within NRCS is very complex, we have just recently finalized our agreement last week, as a matter of fact. As an industry, rice producers have put years of work into finding new ways to reduce erosion, reduce water use, save energy, and address a number of other critical conservation priorities. For those unfamiliar with rice production, rice fields are flooded during the growing season to provide water the plants need and control weeds and pests. Because of this unique method of raising a crop in a flooded environment, rice farming, compared to other commodity production, is more sensitive to water quantity, water quality, and soil stability, and they are essential to maintain our operations.    That being said, RCPP is a natural fit for our industry to further our conservation goals. I appreciate the work that all of you have done to ensure that farmers have the tools they need to implement conservation practices on the landscape. It is a vital part of our industry and a necessary investment if we want to leave our farms as a legacy.    Again, thank you for your leadership and the opportunity to offer my testimony, and I would be happy to respond to any questions.</t>
   </si>
   <si>
+    <t>Martynick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Martynick. Thank you. Chairman Thompson and Members of the Subcommittee, my name is Karen Martynick, and I am the Executive Director of Lancaster Farmland Trust, a not-for-profit land trust located in Lancaster County in Pennsylvania, the home state of the Chairman.    It is an honor to testify before you today on the Agricultural Conservation Easement Program, or ACEP, and share with you the perspective of a land trust that has utilized both the farm and ranchland protection program and ACEP.    Lancaster County, Pennsylvania is known as the garden spot of the United States. Just a few miles west of Philadelphia, Lancaster County ranks 15th in the nation in agricultural production. It has the most productive non-irrigated soils in the country. The county's 5,700 farms, 99 percent of which are family owned, contribute $6 billion to the economy each year.    Lancaster County is also a leader in farmland preservation. In 2013, the county became the first county in the country to preserve 100,000 acres of farmland, a remarkable accomplishment when you consider the fact that the average size farm is just 78 acres. Today, there are more that 1,300 preserved farms in Lancaster County, farms that have been preserved utilizing public and private funds.    My comments today are intended to make ACEP as good as it can be. We are deeply appreciative of the work of NRCS staff and this Committee and the partnership we have with them to carry out the goals of ACEP. It is a great step forward, and we think that working together, we can make it even better.    First and foremost, the program must follow the statute. Much work went into making ACEP a new and improved FRPP. However, the rule does not always reflect the language or intent of the statute.    The program should not be overly complicated. Rules and procedures that micro-manage the work of land trusts will make them reluctant to participate. Land trusts have vast experience in protecting natural resources, and the rules should recognize and reflect that experience.    The program must be clear and concise. Decisions must be received in a timely fashion. Our experience with FRPP is that a project could take as long as 2 years to complete, while a project using other government funds can be completed in 6 months or less. Let me give you some specifics.    On the minimum deed terms: There is a contradiction between the statute and the final interim rule on the issue of minimum deed terms. The statute states that a, ``eligible entity shall be authorized to use its own terms and conditions for agricultural land easement so long as the Secretary determines such terms and conditions meet their conditions.''    While this clearly gives eligible entities the ability to use their own language, the interim final rule on ACEP states that eligible entities, ``must use the NRCS required minimum deed terms specified therein.'' This will force Lancaster Farmland Trust, for instance, to use language that does not necessarily fit its program and does not recognize the special characteristics of Lancaster County.    Appraisal reviews: If you ask any land trust what causes the most delays, they would most likely say it is the appraisal review process. Lancaster Farmland Trust works only with certified appraisers. With 1,300 preserved farms in Lancaster County, the appraisers have a wealth of experience determining the value of conservation easements. When we submit an appraisal for review by NRCS, it can take months to get comments back. The reviewers are from other parts of the country and have little knowledge of Lancaster County.    One way to save time would be to stop requiring the reviewers to establish value on a property he has never visited and in an area with which he is not familiar. The reviewer should be charged with determining if the appraisal was done by a certified appraiser and if that appraisal meets all the required criteria. This would save a great deal of time.    Eligible entity certification: The certification is critical to streamlining the ACEP process; however, the terms necessary to achieve certification may be too onerous for land trusts to participate. The manual states that NRCS may require the entity to return any financial assistance provided by NRCS for easements that fail a quality assurance review. However, the manual does not provide criteria for quality assurance review. This provision prevents sufficient financial risk for a land trust like Lancaster Farmland Trust, and we would be unlikely to apply for certification because of that.    Clearly defining the standard about when such a nuclear option would occur would be absolutely necessary for land trusts to participate. These are just three examples of ways in which the interim final rule for the Agricultural Conservation Easement Program could be improved or could be clarified. I have included additional information in the written testimony I submitted.    On behalf of Lancaster Farmland Trust, I thank you for your time this morning and your consideration of my comments. The land trust community is committed to protecting the country's working lands and stands ready to assist NRCS in determining and implementing improvements for the Agricultural Conservation Easement Program. I appreciate your interest and am happy to take any questions you have. Thank you.</t>
+  </si>
+  <si>
+    <t>Inglis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Inglis. Okay. Thank you, Chairman Thompson, Ranking Member Lujan Grisham, and the Members of the Committee. I am the Governmental Affairs Representative with Pheasants Forever and Quail Forever based out of St. Paul, Minnesota. I am a wildlife biologist by education and experience. I grew up on a dairy farm in Western New York, and I currently live in Upper Sandusky, Ohio.    I am here today representing our 750 community-based Pheasants Forever and Quail Forever chapters, and 142,000 members and volunteers that work every day to promote and implement conservation programs. To compliment the work of our dedicated volunteers, we have a team of Farm Bill Biologists that work as natural resource professionals that have expertise in wildlife biology, forestry and range management. They work with landowners to find the best voluntary conservation solutions that fit the needs as part of their agriculture operations and their personal goals.    Over the last 12 years, these Farm Bill Biologists have worked with landowners in over 148,000 projects covering 5.1 million acres. These projects involve the establishment of quality conservation practices that improve soil health, water quality, and provide habitat benefits to a wide variety of wildlife, not only pheasants and quail but other species such as the Golden-winged warbler in Pennsylvania, Lesser Prairie chicken in the Southern Great Plains, Elk and Sage Grouse in the West, and honey bees and Monarch butterflies throughout our great country.    In addition, all Americans benefit from these conservation practices that improve the soil health, water quality and quantity. We are here today to discuss conservation program implementation, and I would like to spend a few minutes to highlight a couple of them. First of all, I would like to highlight the Conservation Reserve Program that we have heard quite a bit about here this morning. CRP celebrates its 30th anniversary this year. Farmers, ranchers, landowners, and sportsmen will tell you that the program has been and continues to be very popular and productive.    We support CRP's ability to deliver a variety of conservation practices to landowners that address landscape-scale wildlife and natural resource concerns. This would include options to sign up conservation practices during a general CRP sign-up period but also having more targeted practices that are available through the year.    We supported Secretary Vilsack's recent announcement that USDA will host a general signup at the end of this calendar year, as well as adding 800,000 additional continuous acres. We are thankful to have the opportunity to work with USDA to make improvements to CRP to better carry out the intent of Congress by providing conservation benefits for taxpayers as well as the technical and financial resources for landowners and farmers.    Included in my written testimony are details on the CRP implementation recommendations that several sportsmen and wildlife groups recently drafted for USDA and FSA leadership at their request.    I would also like to highlight the Regional Conservation Partnership Program. We are one of 22 partners in the regional grassland, bird and grazing land enhancement project being coordinated by the Missouri Department of Conservation and implemented in four states: Missouri, Iowa, Nebraska, and Kansas. The partnership utilizes NRCS' Environmental Quality Incentives Program and agricultural land easement funds to improve forage quality on grazing lands while benefiting Bobwhite quail, and the Greater Prairie chicken, and numerous other grassland wildlife.    Ultimately, we are enhancing these working land grazing systems making them more productive and more resilient to periods of drought. Preliminary signup results, just in the last couple of weeks, suggest that there is going to be more interest from landowners than funds available. One of our organization's top priorities, along with many of our partners, are to maximize the wildlife benefit, soil health, and water quality on as many acres of farms, fields, ranches, forestlands as possible.    For example, this would include considering individual species' lifecycle needs in the design of conservation plans, such as addressing limiting factors of pollinators in that area. This could also be accomplished by something as simple as using updated seeding specifications and management techniques that would establish and maintain a diversity of vegetative cover but also addresses soil, water, and wildlife concerns.    CRP Mid Contract Management is another great example of having tools available to maximize the benefit to the program throughout the length of the contract.    I need to emphasize that these successes would not be possible without the numerous partnerships that we have across the country, especially with the Natural Resources Conservation Service, Farm Service Agency, and the state fish and wildlife agencies. There are hundreds of partnerships at the state and local levels around the country that leverage the Federal funds for the implementation of the individual conservation programs and practices and for the boots on the ground to deliver them.    Mr. Chairman, in closing, we often hear the term ``precision agriculture'' is going to be the way of future, and with the technology and partnerships we have available across this great country, we can also have precision conservation. The voluntary incentive-based conservation programs in the farm bill clearly give us the tools to accomplish that. I thank you for the opportunity to be here, and I look forward to any questions.</t>
@@ -584,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -592,7 +649,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,1349 +671,1558 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G29" t="s">
+        <v>54</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G34" t="s">
+        <v>61</v>
+      </c>
       <c r="H34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
       <c r="H36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G38" t="s">
+        <v>61</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="G40" t="s">
+        <v>61</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>58</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
       <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>28</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
       <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="I57" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95134.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412557</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Kuster</t>
   </si>
   <si>
@@ -98,6 +104,9 @@
   </si>
   <si>
     <t>412558</t>
+  </si>
+  <si>
+    <t>Ranking Member</t>
   </si>
   <si>
     <t>Lujan Grisham</t>
@@ -641,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,7 +658,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1555 +683,1652 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
       </c>
       <c r="I11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I52" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
